--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.839099999999997</v>
+        <v>8.8179</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9205</v>
+        <v>-21.96530000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>5.664100000000006</v>
+        <v>5.137000000000006</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.206599999999998</v>
+        <v>-8.446699999999996</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.22600000000001</v>
+        <v>-22.224</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.34939999999998</v>
+        <v>-20.80629999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.103499999999999</v>
+        <v>8.950899999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>4.822200000000005</v>
+        <v>5.118600000000006</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.712800000000003</v>
+        <v>4.874200000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.98509999999999</v>
+        <v>-21.9059</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.651299999999992</v>
+        <v>-7.243599999999997</v>
       </c>
     </row>
     <row r="33">
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.088900000000004</v>
+        <v>9.417700000000005</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.710000000000006</v>
+        <v>8.780100000000008</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.105499999999997</v>
+        <v>-7.462399999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.0446</v>
+        <v>-7.066699999999998</v>
       </c>
     </row>
     <row r="46">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.713600000000003</v>
+        <v>5.566500000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.422800000000002</v>
+        <v>-8.2704</v>
       </c>
     </row>
     <row r="52">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.991100000000001</v>
+        <v>5.672599999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.723799999999995</v>
+        <v>-7.879999999999995</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.356399999999987</v>
+        <v>-7.337699999999992</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>6.124999999999997</v>
+        <v>5.449699999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.461299999999999</v>
+        <v>5.471799999999997</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64989999999999</v>
+        <v>-21.65639999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.47259999999999</v>
+        <v>-19.55989999999997</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.567299999999994</v>
+        <v>9.604199999999993</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.60710000000001</v>
+        <v>-21.63830000000002</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.066599999999995</v>
+        <v>-6.922199999999993</v>
       </c>
     </row>
     <row r="94">
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.640899999999998</v>
+        <v>6.248600000000003</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
